--- a/Complete-spreadsheets/EO/C4-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/C4-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F44C9-20BC-4C5F-A574-D099DD7DE615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9605C93D-4E4C-4FE2-8577-72CF490A82FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,23 +616,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>19.018982850080171</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7.5812022620127753</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.5220180337780782</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.5614558045127751</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.7351820481322719</v>
+      <c r="B5" s="4">
+        <v>10.33685403746227</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42.722074408867947</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12.45876848663692</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.8806373555621532</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.384069533019181</v>
       </c>
       <c r="G5">
-        <v>35.418840998516067</v>
+        <v>71.782403821548485</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -654,23 +654,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>18.962164245189228</v>
-      </c>
-      <c r="C6" s="3">
-        <v>11.911074695178</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.5577079908829177</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.6532378518685218</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.96052601331287735</v>
+      <c r="B6" s="4">
+        <v>16.636251534564149</v>
+      </c>
+      <c r="C6" s="4">
+        <v>21.870439758316049</v>
+      </c>
+      <c r="D6" s="4">
+        <v>16.685797239529389</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.3143889346325448</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.334903536430426</v>
       </c>
       <c r="G6">
-        <v>39.044710796431538</v>
+        <v>62.841781003472562</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -693,22 +693,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>10.33685403746227</v>
+        <v>18.024684669798901</v>
       </c>
       <c r="C7" s="4">
-        <v>42.722074408867947</v>
+        <v>8.0038087386052972</v>
       </c>
       <c r="D7" s="4">
-        <v>12.45876848663692</v>
+        <v>7.7901547931650494</v>
       </c>
       <c r="E7" s="4">
-        <v>2.8806373555621532</v>
+        <v>3.5679907639697279</v>
       </c>
       <c r="F7" s="4">
-        <v>3.384069533019181</v>
+        <v>3.5747648082505319</v>
       </c>
       <c r="G7">
-        <v>71.782403821548485</v>
+        <v>40.961403773789513</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -730,23 +730,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>22.254654961336751</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.3002895199405033</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.697412806962149</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.884248425780672</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.3970346509773401</v>
+      <c r="B8" s="4">
+        <v>21.793036736817282</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.9204649685017294</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10.157082152645749</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.673612450308811</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.029584316576996</v>
       </c>
       <c r="G8">
-        <v>37.53364036499741</v>
+        <v>47.573780624850578</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -772,22 +772,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>16.636251534564149</v>
+        <v>35.078527462332247</v>
       </c>
       <c r="C9" s="4">
-        <v>21.870439758316049</v>
+        <v>6.4450055398724899</v>
       </c>
       <c r="D9" s="4">
-        <v>16.685797239529389</v>
+        <v>3.644825464142166</v>
       </c>
       <c r="E9" s="4">
-        <v>3.3143889346325448</v>
+        <v>3.7514500605020009</v>
       </c>
       <c r="F9" s="4">
-        <v>4.334903536430426</v>
+        <v>3.3364582396535849</v>
       </c>
       <c r="G9">
-        <v>62.841781003472562</v>
+        <v>52.256266766502478</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -812,23 +812,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>19.292843262790011</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7.6702578754812709</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.6870764887095202</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.3156003625267121</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.0233009520342562</v>
+      <c r="B10" s="4">
+        <v>24.438194110554409</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10.851399189477871</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.1694371874830169</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.9433704504868321</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.0485421633734191</v>
       </c>
       <c r="G10">
-        <v>41.989078941541777</v>
+        <v>47.450943101375557</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -851,22 +851,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>18.024684669798901</v>
+        <v>143.74542196297469</v>
       </c>
       <c r="C11" s="4">
-        <v>8.0038087386052972</v>
+        <v>11.476288741233111</v>
       </c>
       <c r="D11" s="4">
-        <v>7.7901547931650494</v>
+        <v>10.154669416837409</v>
       </c>
       <c r="E11" s="4">
-        <v>3.5679907639697279</v>
+        <v>3.9526579287700279</v>
       </c>
       <c r="F11" s="4">
-        <v>3.5747648082505319</v>
+        <v>2.353334416042697</v>
       </c>
       <c r="G11">
-        <v>40.961403773789513</v>
+        <v>171.6823724658579</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -889,22 +889,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>21.793036736817282</v>
+        <v>45.406446064758889</v>
       </c>
       <c r="C12" s="4">
-        <v>8.9204649685017294</v>
+        <v>31.754194287755809</v>
       </c>
       <c r="D12" s="4">
-        <v>10.157082152645749</v>
+        <v>11.517400657711329</v>
       </c>
       <c r="E12" s="4">
-        <v>3.673612450308811</v>
+        <v>4.5189165297636968</v>
       </c>
       <c r="F12" s="4">
-        <v>3.029584316576996</v>
+        <v>5.4012343400415279</v>
       </c>
       <c r="G12">
-        <v>47.573780624850578</v>
+        <v>98.598191880031294</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -927,22 +927,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>35.078527462332247</v>
+        <v>23.141679021931662</v>
       </c>
       <c r="C13" s="4">
-        <v>6.4450055398724899</v>
+        <v>8.1875352222988127</v>
       </c>
       <c r="D13" s="4">
-        <v>3.644825464142166</v>
+        <v>4.0056867957003748</v>
       </c>
       <c r="E13" s="4">
-        <v>3.7514500605020009</v>
+        <v>4.9503937098207036</v>
       </c>
       <c r="F13" s="4">
-        <v>3.3364582396535849</v>
+        <v>3.6266057798498741</v>
       </c>
       <c r="G13">
-        <v>52.256266766502478</v>
+        <v>43.911900529601418</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>24.438194110554409</v>
+        <v>7.1977102863614766</v>
       </c>
       <c r="C14" s="4">
-        <v>10.851399189477871</v>
+        <v>34.580845112955039</v>
       </c>
       <c r="D14" s="4">
-        <v>4.1694371874830169</v>
+        <v>6.7163185561216601</v>
       </c>
       <c r="E14" s="4">
-        <v>3.9433704504868321</v>
+        <v>4.9911376544302746</v>
       </c>
       <c r="F14" s="4">
-        <v>4.0485421633734191</v>
+        <v>6.0625159158979489</v>
       </c>
       <c r="G14">
-        <v>47.450943101375557</v>
+        <v>59.548527525766403</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1003,22 +1003,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>143.74542196297469</v>
+        <v>29.184293086415199</v>
       </c>
       <c r="C15" s="4">
-        <v>11.476288741233111</v>
+        <v>10.589589279037231</v>
       </c>
       <c r="D15" s="4">
-        <v>10.154669416837409</v>
+        <v>27.348422553377169</v>
       </c>
       <c r="E15" s="4">
-        <v>3.9526579287700279</v>
+        <v>5.4886159157170207</v>
       </c>
       <c r="F15" s="4">
-        <v>2.353334416042697</v>
+        <v>3.1818393381412879</v>
       </c>
       <c r="G15">
-        <v>171.6823724658579</v>
+        <v>75.792760172687906</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1041,22 +1041,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>45.406446064758889</v>
+        <v>18.873843686500209</v>
       </c>
       <c r="C16" s="4">
-        <v>31.754194287755809</v>
+        <v>25.97659929878866</v>
       </c>
       <c r="D16" s="4">
-        <v>11.517400657711329</v>
+        <v>4.9524966880317018</v>
       </c>
       <c r="E16" s="4">
-        <v>4.5189165297636968</v>
+        <v>5.5058429747383189</v>
       </c>
       <c r="F16" s="4">
-        <v>5.4012343400415279</v>
+        <v>10.603611451405531</v>
       </c>
       <c r="G16">
-        <v>98.598191880031294</v>
+        <v>65.912394099464407</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1078,23 +1078,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>20.487165853958</v>
-      </c>
-      <c r="C17" s="3">
-        <v>30.973050620945749</v>
-      </c>
-      <c r="D17" s="3">
-        <v>12.375684238965141</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.5946679210512142</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3.313456560705403</v>
+      <c r="B17" s="4">
+        <v>25.336431418748489</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12.555217059775689</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44.968550806068613</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.5160504389306668</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.6438336735119661</v>
       </c>
       <c r="G17">
-        <v>71.744025195625511</v>
+        <v>92.020083397035421</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1116,23 +1116,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>38.291707317272682</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9.7938728906250532</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2.8054057220158128</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.6033234381148063</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.2777187489982724</v>
+      <c r="B18" s="4">
+        <v>51.256522624524457</v>
+      </c>
+      <c r="C18" s="4">
+        <v>13.62492494276613</v>
+      </c>
+      <c r="D18" s="4">
+        <v>19.922299048318699</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.8774326138928927</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.9386091163818731</v>
       </c>
       <c r="G18">
-        <v>59.772028117026622</v>
+        <v>94.619788345884047</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1154,23 +1154,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>19.825825226568089</v>
-      </c>
-      <c r="C19" s="3">
-        <v>15.36112298964842</v>
-      </c>
-      <c r="D19" s="3">
-        <v>12.44984817430038</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.9471090434113876</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2.2847214399438309</v>
+      <c r="B19" s="4">
+        <v>21.191950775630641</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8.2657489254211391</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.931701365790961</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.9632126271960262</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.1960202645472169</v>
       </c>
       <c r="G19">
-        <v>54.86862687387211</v>
+        <v>53.548633958585981</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1193,22 +1193,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>23.141679021931662</v>
+        <v>19.705767695895489</v>
       </c>
       <c r="C20" s="4">
-        <v>8.1875352222988127</v>
+        <v>124.67876362688691</v>
       </c>
       <c r="D20" s="4">
-        <v>4.0056867957003748</v>
+        <v>9.8450252819330206</v>
       </c>
       <c r="E20" s="4">
-        <v>4.9503937098207036</v>
+        <v>6.3922674996278008</v>
       </c>
       <c r="F20" s="4">
-        <v>3.6266057798498741</v>
+        <v>3.102530976354787</v>
       </c>
       <c r="G20">
-        <v>43.911900529601418</v>
+        <v>163.72435508069799</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1231,22 +1231,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>7.1977102863614766</v>
+        <v>69.309906806042989</v>
       </c>
       <c r="C21" s="4">
-        <v>34.580845112955039</v>
+        <v>38.795935549424229</v>
       </c>
       <c r="D21" s="4">
-        <v>6.7163185561216601</v>
+        <v>7.6486017286009016</v>
       </c>
       <c r="E21" s="4">
-        <v>4.9911376544302746</v>
+        <v>8.4168608531243052</v>
       </c>
       <c r="F21" s="4">
-        <v>6.0625159158979489</v>
+        <v>5.4007679411994278</v>
       </c>
       <c r="G21">
-        <v>59.548527525766403</v>
+        <v>129.57207287839191</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1269,22 +1269,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>29.184293086415199</v>
+        <v>27.687871560461371</v>
       </c>
       <c r="C22" s="4">
-        <v>10.589589279037231</v>
+        <v>13.13736969334057</v>
       </c>
       <c r="D22" s="4">
-        <v>27.348422553377169</v>
+        <v>18.71094134291862</v>
       </c>
       <c r="E22" s="4">
-        <v>5.4886159157170207</v>
+        <v>9.9089500028163648</v>
       </c>
       <c r="F22" s="4">
-        <v>3.1818393381412879</v>
+        <v>14.361096780279331</v>
       </c>
       <c r="G22">
-        <v>75.792760172687906</v>
+        <v>83.806229379816244</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1307,22 +1307,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>18.873843686500209</v>
+        <v>37.685515302537063</v>
       </c>
       <c r="C23" s="4">
-        <v>25.97659929878866</v>
+        <v>23.878387790477952</v>
       </c>
       <c r="D23" s="4">
-        <v>4.9524966880317018</v>
+        <v>17.325028436573401</v>
       </c>
       <c r="E23" s="4">
-        <v>5.5058429747383189</v>
+        <v>12.48743369212723</v>
       </c>
       <c r="F23" s="4">
-        <v>10.603611451405531</v>
+        <v>6.8498216599242063</v>
       </c>
       <c r="G23">
-        <v>65.912394099464407</v>
+        <v>98.226186881639848</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1345,22 +1345,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="4">
-        <v>25.336431418748489</v>
+        <v>39.781599638440063</v>
       </c>
       <c r="C24" s="4">
-        <v>12.555217059775689</v>
+        <v>25.177484900755381</v>
       </c>
       <c r="D24" s="4">
-        <v>44.968550806068613</v>
+        <v>74.983359991370008</v>
       </c>
       <c r="E24" s="4">
-        <v>5.5160504389306668</v>
+        <v>24.529964473754269</v>
       </c>
       <c r="F24" s="4">
-        <v>3.6438336735119661</v>
+        <v>27.498231608916381</v>
       </c>
       <c r="G24">
-        <v>92.020083397035421</v>
+        <v>191.9706406132361</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -1383,22 +1383,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>463.6447051571613</v>
+        <v>19.018982850080171</v>
       </c>
       <c r="C25" s="3">
-        <v>42.894653681942472</v>
+        <v>7.5812022620127753</v>
       </c>
       <c r="D25" s="3">
-        <v>11.26009701443539</v>
+        <v>3.5220180337780782</v>
       </c>
       <c r="E25" s="3">
-        <v>5.5748863953235688</v>
+        <v>2.5614558045127751</v>
       </c>
       <c r="F25" s="3">
-        <v>3.8384149020748088</v>
+        <v>2.7351820481322719</v>
       </c>
       <c r="G25">
-        <v>527.21275715093748</v>
+        <v>35.418840998516067</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1421,22 +1421,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>45.003977548328159</v>
+        <v>18.962164245189228</v>
       </c>
       <c r="C26" s="3">
-        <v>19.818217591798479</v>
+        <v>11.911074695178</v>
       </c>
       <c r="D26" s="3">
-        <v>5.5019451864670126</v>
+        <v>4.5577079908829177</v>
       </c>
       <c r="E26" s="3">
-        <v>5.5770053457044506</v>
+        <v>2.6532378518685218</v>
       </c>
       <c r="F26" s="3">
-        <v>5.7485683689843352</v>
+        <v>0.96052601331287735</v>
       </c>
       <c r="G26">
-        <v>81.649714041282436</v>
+        <v>39.044710796431538</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1458,23 +1458,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>51.256522624524457</v>
-      </c>
-      <c r="C27" s="4">
-        <v>13.62492494276613</v>
-      </c>
-      <c r="D27" s="4">
-        <v>19.922299048318699</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5.8774326138928927</v>
-      </c>
-      <c r="F27" s="4">
-        <v>3.9386091163818731</v>
+      <c r="B27" s="3">
+        <v>22.254654961336751</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.3002895199405033</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.697412806962149</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.884248425780672</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.3970346509773401</v>
       </c>
       <c r="G27">
-        <v>94.619788345884047</v>
+        <v>37.53364036499741</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1496,23 +1496,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>21.191950775630641</v>
-      </c>
-      <c r="C28" s="4">
-        <v>8.2657489254211391</v>
-      </c>
-      <c r="D28" s="4">
-        <v>12.931701365790961</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5.9632126271960262</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.1960202645472169</v>
+      <c r="B28" s="3">
+        <v>19.292843262790011</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.6702578754812709</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9.6870764887095202</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.3156003625267121</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.0233009520342562</v>
       </c>
       <c r="G28">
-        <v>53.548633958585981</v>
+        <v>41.989078941541777</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1535,22 +1535,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>24.863716038887901</v>
+        <v>20.487165853958</v>
       </c>
       <c r="C29" s="3">
-        <v>7.1511184295538657</v>
+        <v>30.973050620945749</v>
       </c>
       <c r="D29" s="3">
-        <v>4.5305417870974241</v>
+        <v>12.375684238965141</v>
       </c>
       <c r="E29" s="3">
-        <v>6.3380666949489148</v>
+        <v>4.5946679210512142</v>
       </c>
       <c r="F29" s="3">
-        <v>5.5854291925388946</v>
+        <v>3.313456560705403</v>
       </c>
       <c r="G29">
-        <v>48.468872143026999</v>
+        <v>71.744025195625511</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1572,23 +1572,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>19.705767695895489</v>
-      </c>
-      <c r="C30" s="4">
-        <v>124.67876362688691</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9.8450252819330206</v>
-      </c>
-      <c r="E30" s="4">
-        <v>6.3922674996278008</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3.102530976354787</v>
+      <c r="B30" s="3">
+        <v>38.291707317272682</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9.7938728906250532</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.8054057220158128</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.6033234381148063</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.2777187489982724</v>
       </c>
       <c r="G30">
-        <v>163.72435508069799</v>
+        <v>59.772028117026622</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1610,23 +1610,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>69.309906806042989</v>
-      </c>
-      <c r="C31" s="4">
-        <v>38.795935549424229</v>
-      </c>
-      <c r="D31" s="4">
-        <v>7.6486017286009016</v>
-      </c>
-      <c r="E31" s="4">
-        <v>8.4168608531243052</v>
-      </c>
-      <c r="F31" s="4">
-        <v>5.4007679411994278</v>
+      <c r="B31" s="3">
+        <v>19.825825226568089</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15.36112298964842</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12.44984817430038</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4.9471090434113876</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.2847214399438309</v>
       </c>
       <c r="G31">
-        <v>129.57207287839191</v>
+        <v>54.86862687387211</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1649,22 +1649,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>34.331569459515848</v>
+        <v>463.6447051571613</v>
       </c>
       <c r="C32" s="3">
-        <v>11.79287133845305</v>
+        <v>42.894653681942472</v>
       </c>
       <c r="D32" s="3">
-        <v>12.16369676330569</v>
+        <v>11.26009701443539</v>
       </c>
       <c r="E32" s="3">
-        <v>9.5582039302876787</v>
+        <v>5.5748863953235688</v>
       </c>
       <c r="F32" s="3">
-        <v>8.2455240345742169</v>
+        <v>3.8384149020748088</v>
       </c>
       <c r="G32">
-        <v>76.091865526136502</v>
+        <v>527.21275715093748</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1686,23 +1686,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>27.687871560461371</v>
-      </c>
-      <c r="C33" s="4">
-        <v>13.13736969334057</v>
-      </c>
-      <c r="D33" s="4">
-        <v>18.71094134291862</v>
-      </c>
-      <c r="E33" s="4">
-        <v>9.9089500028163648</v>
-      </c>
-      <c r="F33" s="4">
-        <v>14.361096780279331</v>
+      <c r="B33" s="3">
+        <v>45.003977548328159</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19.818217591798479</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5.5019451864670126</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5.5770053457044506</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.7485683689843352</v>
       </c>
       <c r="G33">
-        <v>83.806229379816244</v>
+        <v>81.649714041282436</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>20</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1725,22 +1725,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>59.434642865538592</v>
+        <v>24.863716038887901</v>
       </c>
       <c r="C34" s="3">
-        <v>12.66451504965114</v>
+        <v>7.1511184295538657</v>
       </c>
       <c r="D34" s="3">
-        <v>6.4267360157521596</v>
+        <v>4.5305417870974241</v>
       </c>
       <c r="E34" s="3">
-        <v>10.25295448493314</v>
+        <v>6.3380666949489148</v>
       </c>
       <c r="F34" s="3">
-        <v>10.95918276720972</v>
+        <v>5.5854291925388946</v>
       </c>
       <c r="G34">
-        <v>99.738031183084743</v>
+        <v>48.468872143026999</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1763,22 +1763,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>45.725724450703908</v>
+        <v>34.331569459515848</v>
       </c>
       <c r="C35" s="3">
-        <v>16.206262344208071</v>
+        <v>11.79287133845305</v>
       </c>
       <c r="D35" s="3">
-        <v>14.28012592685115</v>
+        <v>12.16369676330569</v>
       </c>
       <c r="E35" s="3">
-        <v>10.817759954136751</v>
+        <v>9.5582039302876787</v>
       </c>
       <c r="F35" s="3">
-        <v>11.928884377247639</v>
+        <v>8.2455240345742169</v>
       </c>
       <c r="G35">
-        <v>98.958757053147536</v>
+        <v>76.091865526136502</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1800,23 +1800,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>37.685515302537063</v>
-      </c>
-      <c r="C36" s="4">
-        <v>23.878387790477952</v>
-      </c>
-      <c r="D36" s="4">
-        <v>17.325028436573401</v>
-      </c>
-      <c r="E36" s="4">
-        <v>12.48743369212723</v>
-      </c>
-      <c r="F36" s="4">
-        <v>6.8498216599242063</v>
+      <c r="B36" s="3">
+        <v>59.434642865538592</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12.66451504965114</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6.4267360157521596</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10.25295448493314</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10.95918276720972</v>
       </c>
       <c r="G36">
-        <v>98.226186881639848</v>
+        <v>99.738031183084743</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>21</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1839,22 +1839,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>35.112717187465947</v>
+        <v>45.725724450703908</v>
       </c>
       <c r="C37" s="3">
-        <v>20.079918608644459</v>
+        <v>16.206262344208071</v>
       </c>
       <c r="D37" s="3">
-        <v>30.664132791526519</v>
+        <v>14.28012592685115</v>
       </c>
       <c r="E37" s="3">
-        <v>13.259229965162911</v>
+        <v>10.817759954136751</v>
       </c>
       <c r="F37" s="3">
-        <v>10.818301140291601</v>
+        <v>11.928884377247639</v>
       </c>
       <c r="G37">
-        <v>109.9342996930914</v>
+        <v>98.958757053147536</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1877,22 +1877,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>27.378287969627291</v>
+        <v>35.112717187465947</v>
       </c>
       <c r="C38" s="3">
-        <v>17.047880871212449</v>
+        <v>20.079918608644459</v>
       </c>
       <c r="D38" s="3">
-        <v>50.068030572111098</v>
+        <v>30.664132791526519</v>
       </c>
       <c r="E38" s="3">
-        <v>13.489749499625219</v>
+        <v>13.259229965162911</v>
       </c>
       <c r="F38" s="3">
-        <v>4.799770421731556</v>
+        <v>10.818301140291601</v>
       </c>
       <c r="G38">
-        <v>112.78371933430761</v>
+        <v>109.9342996930914</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1915,22 +1915,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>13.59493743486844</v>
+        <v>27.378287969627291</v>
       </c>
       <c r="C39" s="3">
-        <v>7.6426091286642732</v>
+        <v>17.047880871212449</v>
       </c>
       <c r="D39" s="3">
-        <v>12.098830678448801</v>
+        <v>50.068030572111098</v>
       </c>
       <c r="E39" s="3">
-        <v>13.969633932474039</v>
+        <v>13.489749499625219</v>
       </c>
       <c r="F39" s="3">
-        <v>13.83960220471484</v>
+        <v>4.799770421731556</v>
       </c>
       <c r="G39">
-        <v>61.145613379170392</v>
+        <v>112.78371933430761</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1953,22 +1953,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>20.49153544869889</v>
+        <v>13.59493743486844</v>
       </c>
       <c r="C40" s="3">
-        <v>9.0644824441077176</v>
+        <v>7.6426091286642732</v>
       </c>
       <c r="D40" s="3">
-        <v>7.7730461264992146</v>
+        <v>12.098830678448801</v>
       </c>
       <c r="E40" s="3">
-        <v>14.45556960108717</v>
+        <v>13.969633932474039</v>
       </c>
       <c r="F40" s="3">
-        <v>16.39877064823925</v>
+        <v>13.83960220471484</v>
       </c>
       <c r="G40">
-        <v>68.183404268632259</v>
+        <v>61.145613379170392</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1991,22 +1991,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>31.56742292274566</v>
+        <v>20.49153544869889</v>
       </c>
       <c r="C41" s="3">
-        <v>9.941413235570085</v>
+        <v>9.0644824441077176</v>
       </c>
       <c r="D41" s="3">
-        <v>10.748697556293189</v>
+        <v>7.7730461264992146</v>
       </c>
       <c r="E41" s="3">
-        <v>14.52859272660988</v>
+        <v>14.45556960108717</v>
       </c>
       <c r="F41" s="3">
-        <v>5.6326288900946064</v>
+        <v>16.39877064823925</v>
       </c>
       <c r="G41">
-        <v>72.418755331313434</v>
+        <v>68.183404268632259</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2029,22 +2029,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>35.571922965643708</v>
+        <v>31.56742292274566</v>
       </c>
       <c r="C42" s="3">
-        <v>18.094558126881001</v>
+        <v>9.941413235570085</v>
       </c>
       <c r="D42" s="3">
-        <v>9.9677661793742267</v>
+        <v>10.748697556293189</v>
       </c>
       <c r="E42" s="3">
-        <v>14.92799803472564</v>
+        <v>14.52859272660988</v>
       </c>
       <c r="F42" s="3">
-        <v>20.196389951378269</v>
+        <v>5.6326288900946064</v>
       </c>
       <c r="G42">
-        <v>98.758635258002869</v>
+        <v>72.418755331313434</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2067,22 +2067,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>14.333227014278849</v>
+        <v>35.571922965643708</v>
       </c>
       <c r="C43" s="3">
-        <v>7.9453525553540274</v>
+        <v>18.094558126881001</v>
       </c>
       <c r="D43" s="3">
-        <v>9.2225649876126621</v>
+        <v>9.9677661793742267</v>
       </c>
       <c r="E43" s="3">
-        <v>21.667776855487041</v>
+        <v>14.92799803472564</v>
       </c>
       <c r="F43" s="3">
-        <v>15.407185996126559</v>
+        <v>20.196389951378269</v>
       </c>
       <c r="G43">
-        <v>68.57610740885913</v>
+        <v>98.758635258002869</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2105,22 +2105,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>117.417894718772</v>
+        <v>14.333227014278849</v>
       </c>
       <c r="C44" s="3">
-        <v>51.36964605916112</v>
+        <v>7.9453525553540274</v>
       </c>
       <c r="D44" s="3">
-        <v>22.443891273780299</v>
+        <v>9.2225649876126621</v>
       </c>
       <c r="E44" s="3">
-        <v>23.16280658534308</v>
+        <v>21.667776855487041</v>
       </c>
       <c r="F44" s="3">
-        <v>22.447236792300281</v>
+        <v>15.407185996126559</v>
       </c>
       <c r="G44">
-        <v>236.84147542935671</v>
+        <v>68.57610740885913</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2143,22 +2143,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>50.851135145250097</v>
+        <v>117.417894718772</v>
       </c>
       <c r="C45" s="3">
-        <v>15.517830075811441</v>
+        <v>51.36964605916112</v>
       </c>
       <c r="D45" s="3">
-        <v>14.147051922118539</v>
+        <v>22.443891273780299</v>
       </c>
       <c r="E45" s="3">
-        <v>23.24258746740945</v>
+        <v>23.16280658534308</v>
       </c>
       <c r="F45" s="3">
-        <v>9.6455851507750783</v>
+        <v>22.447236792300281</v>
       </c>
       <c r="G45">
-        <v>113.40418976136461</v>
+        <v>236.84147542935671</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2180,23 +2180,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>39.781599638440063</v>
-      </c>
-      <c r="C46" s="4">
-        <v>25.177484900755381</v>
-      </c>
-      <c r="D46" s="4">
-        <v>74.983359991370008</v>
-      </c>
-      <c r="E46" s="4">
-        <v>24.529964473754269</v>
-      </c>
-      <c r="F46" s="4">
-        <v>27.498231608916381</v>
+      <c r="B46" s="3">
+        <v>50.851135145250097</v>
+      </c>
+      <c r="C46" s="3">
+        <v>15.517830075811441</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14.147051922118539</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23.24258746740945</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9.6455851507750783</v>
       </c>
       <c r="G46">
-        <v>191.9706406132361</v>
+        <v>113.40418976136461</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2367,9 +2367,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
-    <sortCondition ref="E2:E62"/>
-    <sortCondition ref="F2:F62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
